--- a/4-sheets/demos/LOOKUP/04-01-vlookup-exact-match.xlsx
+++ b/4-sheets/demos/LOOKUP/04-01-vlookup-exact-match.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\Dropbox\udactiy_work\Data_fundamentals_ND\Udacity-data-fundamentals\4-sheets\exercises\LOOKUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\Dropbox\udactiy_work\Data_fundamentals_ND\Udacity-data-fundamentals\4-sheets\demos\LOOKUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C35E786-FBDC-4C4A-A86D-65250883B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B111322E-848D-4B37-A295-FFF9141E9455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9337A86C-3A94-4596-ADB4-F89472BF2CE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9337A86C-3A94-4596-ADB4-F89472BF2CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="3" r:id="rId1"/>
@@ -18,20 +18,14 @@
     <sheet name="Parts Catalogue" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ddd">'Parts Catalogue'!$A$3:$C$87</definedName>
     <definedName name="Deb" localSheetId="2" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="Deb" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" localSheetId="1" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" localSheetId="2" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
-    <definedName name="eee">'Parts Catalogue'!$A$3:$C$87</definedName>
-    <definedName name="fff">'Parts Catalogue'!$A$3:$C$87</definedName>
-    <definedName name="google">'Parts Catalogue'!$A$3:$C$87</definedName>
     <definedName name="k" localSheetId="1" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="k" localSheetId="2" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="k" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
-    <definedName name="ooo">'Parts Catalogue'!$A$3:$C$87</definedName>
-    <definedName name="part_table">'Parts Catalogue'!$A$3:$C$87</definedName>
     <definedName name="q" localSheetId="1" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="q" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
@@ -41,8 +35,6 @@
     <definedName name="rrr" localSheetId="1" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
     <definedName name="rrr" localSheetId="2" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
     <definedName name="rrr" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
-    <definedName name="Table">'Parts Catalogue'!$A$3:$C$87</definedName>
-    <definedName name="Table2">'Parts Catalogue'!$A$3:$C$87</definedName>
     <definedName name="Teesst" localSheetId="2" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="Teesst" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="Tesst" localSheetId="2" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
@@ -389,9 +381,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -510,18 +499,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -877,7 +856,7 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="10" t="s">
         <v>92</v>
       </c>
       <c r="I2">
@@ -916,7 +895,7 @@
       <c r="D5">
         <v>14</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I5" t="str">
@@ -934,7 +913,7 @@
       <c r="D6">
         <v>19</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I6">
@@ -1077,8 +1056,8 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,8 +1163,8 @@
   </sheetPr>
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,938 +1178,939 @@
       <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>15001</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <v>19.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>16801</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>18.703999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6">
         <v>17122</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>17.849999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>19232</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>18.941999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8">
         <v>20343</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>18.941999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9">
         <v>21303</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>19.012</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10">
         <v>21356</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>18.032</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>22234</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>19.236000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>23045</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>19.123999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>23130</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>18.661999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>24402</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>18.773999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>25138</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15">
         <v>17.849999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>25189</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16">
         <v>19.04</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>25571</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17">
         <v>19.04</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>26905</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18">
         <v>18.731999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>27495</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19">
         <v>19.04</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20">
         <v>28788</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <v>19.165999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21">
         <v>30763</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21">
         <v>18.955999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>30871</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22">
         <v>19.165999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>31020</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23">
         <v>19.082000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>32759</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24">
         <v>18.955999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>34288</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25">
         <v>19.012</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>34328</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26">
         <v>18.731999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+      <c r="A27">
         <v>37654</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27">
         <v>19.012</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28">
         <v>38849</v>
       </c>
-      <c r="C28" s="12">
+      <c r="B28"/>
+      <c r="C28">
         <v>18.802</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>39129</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29">
         <v>17.751999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>43312</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30">
         <v>19.067999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>43411</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31">
         <v>19.165999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>43475</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32">
         <v>19.165999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>47466</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33">
         <v>18.731999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34">
         <v>48108</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34">
         <v>18.773999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>48133</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35">
         <v>18.661999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>49331</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36">
         <v>19.123999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>50251</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37">
         <v>19.11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>50419</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38">
         <v>19.123999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="A39">
         <v>50860</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39">
         <v>18.858000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>51609</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40">
         <v>19.236000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>53183</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41">
         <v>19.123999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42">
         <v>54393</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42">
         <v>17.849999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>54431</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43">
         <v>18.731999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>54709</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44">
         <v>19.11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>56277</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45">
         <v>19.11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>58598</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46">
         <v>18.017999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>59617</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47">
         <v>18.661999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>60836</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48">
         <v>19.236000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+      <c r="A49">
         <v>60915</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49">
         <v>18.941999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>61272</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50">
         <v>19.012</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+      <c r="A51">
         <v>63232</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51">
         <v>17.849999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>63484</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52">
         <v>18.032</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
+      <c r="A53">
         <v>63911</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53">
         <v>17.821999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>64091</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54">
         <v>19.04</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>64315</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55">
         <v>19.123999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>64530</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56">
         <v>18.731999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+      <c r="A57">
         <v>64633</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57">
         <v>18.661999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>71564</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58">
         <v>19.11</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>71860</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59">
         <v>18.017999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>74314</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60">
         <v>19.082000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+      <c r="A61">
         <v>74591</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61">
         <v>17.486000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>75664</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62">
         <v>19.123999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>76363</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63">
         <v>19.236000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>76596</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64">
         <v>20.986000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
+      <c r="A65">
         <v>76765</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65">
         <v>19.067999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
+      <c r="A66">
         <v>78899</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66">
         <v>18.885999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>78992</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67">
         <v>19.082000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>80484</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68">
         <v>19.11</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
+      <c r="A69">
         <v>80490</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69">
         <v>17.849999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>81719</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70">
         <v>19.082000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>82616</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71">
         <v>18.661999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>83731</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72">
         <v>18.661999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
+      <c r="A73">
         <v>84566</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73">
         <v>18.885999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74">
         <v>85497</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74">
         <v>18.941999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
+      <c r="A75">
         <v>87521</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75">
         <v>19.165999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>88755</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76">
         <v>19.11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>88878</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77">
         <v>18.661999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
+      <c r="A78">
         <v>90727</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78">
         <v>17.849999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="13">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>91831</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79">
         <v>18.661999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
+      <c r="A80">
         <v>92857</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80">
         <v>17.486000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="13">
+      <c r="A81">
         <v>93492</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81">
         <v>19.236000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>94088</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82">
         <v>19.123999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="13">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>96041</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83">
         <v>19.123999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>97094</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84">
         <v>19.165999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="13">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>97713</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85">
         <v>19.04</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>98322</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86">
         <v>18.661999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="13">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>98703</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87">
         <v>18.661999999999999</v>
       </c>
     </row>
